--- a/path_to_file.xlsx
+++ b/path_to_file.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -47,27 +47,6 @@
     </border>
     <border>
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -400,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,51 +388,53 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>lvl1</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>lvl2</t>
-        </is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -462,10 +443,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -476,49 +457,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
